--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2403049.949004913</v>
+        <v>2507989.179180279</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9237647.176340559</v>
+        <v>9253964.623401193</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>5.974864094259601</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>163.0178325771093</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.62671122876474</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>42.80850684409161</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>56.16180278495424</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.00046772082109</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>11.92774443006018</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>171.7276502256634</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.0768310830471</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>316.4707540849187</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>117.1593804541267</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.82351723687751</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>64.36993339924462</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.27150084979086</v>
+        <v>132.5039425933948</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>86.80636739625321</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>84.87800743369371</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>120.4832454124068</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.879692121443</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>32.05158559392623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>71.05846343488149</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>219.2450387532285</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6324680438220639</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>39.99000985192075</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.23631477519697</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>108.3764982651487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.5680500910463</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>35.8864194913568</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1677.574522601423</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.612005661012</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>950.3463070542614</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3050.65067578565</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2797.120199059486</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>2466.057311715915</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W2" t="n">
-        <v>2466.057311715915</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2064.174362665545</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.1023745137405</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C4" t="n">
-        <v>391.1661915858336</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>391.1661915858336</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>391.1661915858336</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1593.205204070364</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1396.576456230225</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1173.597975424961</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="W4" t="n">
-        <v>969.7403902419976</v>
+        <v>595.0624678918377</v>
       </c>
       <c r="X4" t="n">
-        <v>741.7508393439803</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="Y4" t="n">
-        <v>741.7508393439803</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2380.91102720445</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2380.91102720445</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2380.91102720445</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2028.142371934335</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>1654.676613673255</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>1264.537281697444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>845.9911918222185</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>708.3064969624544</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C7" t="n">
-        <v>539.3703140345475</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D7" t="n">
-        <v>539.3703140345475</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.088627004002</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="X7" t="n">
-        <v>929.0990761059845</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.3064969624544</v>
+        <v>940.7932119894607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645722</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>747.4506112757448</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>578.5144283478379</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>428.3977889355021</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>428.3977889355021</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>428.3977889355021</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>929.0990761059845</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606607</v>
+        <v>1063.573343591574</v>
       </c>
       <c r="C16" t="n">
         <v>929.7309773356194</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>3114.186543342964</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>2945.250360415057</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>2795.133721002722</v>
       </c>
       <c r="E19" t="n">
-        <v>430.7826650753331</v>
+        <v>2647.220627420329</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>2647.220627420329</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>3516.627587316734</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>3295.835008173204</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.341129796739</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
         <v>2561.485266376193</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4569.132904507273</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>4349.531439530215</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>4060.456212874413</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>3805.771724668526</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W22" t="n">
-        <v>3805.771724668526</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X22" t="n">
-        <v>3577.782173770509</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626978</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,28 +6238,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499465</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571558</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159222</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4369.156388614099</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>4369.156388614099</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>4114.471900408213</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>3825.054730371252</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>3597.065179473234</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329704</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6481,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6543,19 +6545,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.278523222742</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1870.601831589881</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>296.6049994797555</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>129.4089001946355</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>3162.891787183563</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>3790.48975073817</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>175.8744207939072</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2270.446169463826</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1981.370942808024</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.686454602137</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1437.269284565176</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.279733667159</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7430,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>94.56320294380259</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>633.4413279836774</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>464.5051450557705</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7600,19 +7602,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>815.0897928139171</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3296.6994343069</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3127.763251378994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>2977.646611966658</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>2829.733518384265</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>2682.843570886354</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>2515.647471601234</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2373.935640443432</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>4471.231687421535</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>4216.547199215648</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3927.130029178687</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3699.14047828067</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3478.34789913714</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>255.524048747157</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.0084629450598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.24553961896774</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.975320248837</v>
+        <v>34.74287850523299</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>58.61468062667804</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>80.64613085857513</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.54304058923776</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202384959</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>220.0860577299018</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>146.3469868924068</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>32.8926045705995</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>180.3938179578225</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>246.1944645373234</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>105.0583980710269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>109.0289520621396</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.01660326104849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>45.37941682720874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>809054.9411278489</v>
+        <v>817373.6396293481</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>809054.9411278489</v>
+        <v>817373.6396293481</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551196</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810792</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810792</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810793</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756546</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675665</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888895.5497722744</v>
+        <v>-708108.4580630466</v>
       </c>
       <c r="C6" t="n">
-        <v>439849.1959553187</v>
+        <v>406643.3255128725</v>
       </c>
       <c r="D6" t="n">
-        <v>439849.1959553183</v>
+        <v>247222.0555149805</v>
       </c>
       <c r="E6" t="n">
-        <v>189666.4227717358</v>
+        <v>189666.4227717357</v>
       </c>
       <c r="F6" t="n">
-        <v>515078.8845790912</v>
+        <v>515078.8845790913</v>
       </c>
       <c r="G6" t="n">
-        <v>515078.8845790916</v>
+        <v>515078.884579091</v>
       </c>
       <c r="H6" t="n">
-        <v>515078.884579091</v>
+        <v>515078.8845790913</v>
       </c>
       <c r="I6" t="n">
-        <v>515078.8845790912</v>
+        <v>515078.8845790908</v>
       </c>
       <c r="J6" t="n">
-        <v>297547.6821818139</v>
+        <v>347473.7067691087</v>
       </c>
       <c r="K6" t="n">
-        <v>515078.8845790909</v>
+        <v>515078.8845790913</v>
       </c>
       <c r="L6" t="n">
-        <v>515078.884579091</v>
+        <v>466784.9145709006</v>
       </c>
       <c r="M6" t="n">
-        <v>430023.8566435791</v>
+        <v>430023.8566435793</v>
       </c>
       <c r="N6" t="n">
         <v>515078.8845790913</v>
       </c>
       <c r="O6" t="n">
-        <v>515078.8845790914</v>
+        <v>515078.8845790912</v>
       </c>
       <c r="P6" t="n">
-        <v>515078.8845790913</v>
+        <v>515078.8845790912</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.306832697356</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973562</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>375.9555059780022</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>40.90013756251082</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>134.7943367941665</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>58.74906557548202</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>150.4963821952795</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>376.2374709352325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>134.506218216509</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>80.40999309816462</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.657010580433507</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>38.21228753576429</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.86642780490153</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29332,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-4.616724784349116e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30520,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-4.938527139227503e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,13 +32083,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32099,7 +32101,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>490.5075832355679</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O36" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>209.7242506524599</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028593</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>553.2044093850072</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556937</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O36" t="n">
-        <v>245.9177694853266</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>82.88662398579324</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.7540807028593007</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2503893.537675513</v>
+        <v>2505654.067978299</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936922</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283118</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5375742161619</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>26.6486019156569</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>168.7808904375804</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>66.72510631028925</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>299.2618523608633</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208618</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>192.0524966157152</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>204.2286969283057</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>106.8299898147634</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2569953879509</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
         <v>225.7478006422472</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826162023824</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>180.2628815644441</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U24" t="n">
         <v>225.7478006422472</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>123.9815576456896</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012119</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U27" t="n">
         <v>225.7478006422472</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085813226</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856521</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012119</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695473</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012119</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>134.566597553425</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881599</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892429323</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012119</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457647</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788190737</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.702514956985</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788190737</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016444</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195706942</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856521</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892429341</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012119</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016444</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360221</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.371940813059</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148151</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>261.5977834252075</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
@@ -4415,22 +4415,22 @@
         <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4485,52 +4485,52 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1269.331624317611</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.331624317611</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="Y4" t="n">
         <v>1269.331624317611</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1462.856840871421</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="C5" t="n">
-        <v>1093.894323931009</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D5" t="n">
-        <v>735.6286253242588</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>735.6286253242588</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4564,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190803</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847233</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847233</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1852.996172847233</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1462.856840871421</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429763</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744479</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4764,7 +4764,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688551</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
         <v>1384.269056790534</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.314208550276</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.251321206705</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819269</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111745</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075868</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014793</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355955</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068032</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694733</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852284</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273947</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803954</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803954</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803954</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069506</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998415</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237705</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732776</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.42163310766</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
         <v>2244.643795685161</v>
@@ -5876,7 +5876,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.27452942083</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638189501</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111435</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075557</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332366</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014762</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355924</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694702</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,58 +6044,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273947</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803954</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516181</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793935</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
         <v>2244.643795685161</v>
@@ -6113,7 +6113,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740083</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.853600740083</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832674</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487579</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051052</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854718</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648831</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561187</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138529</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192687</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111745</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075868</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014793</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355955</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694701</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273944</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803954</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516181</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793935</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
         <v>2244.643795685161</v>
@@ -6350,7 +6350,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.853600740083</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429797</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429797</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429797</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429797</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578597</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832674</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487579</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051052</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854718</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648831</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561187</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138529</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703228</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819269</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111745</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075868</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014793</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355955</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068032</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694733</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852284</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273947</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803954</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516181</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793935</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
         <v>2244.643795685161</v>
@@ -6587,7 +6587,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832674</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192753</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111751</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075872</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014794</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068033</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694734</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852285</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398624</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749261</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474816</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778471</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967201</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354688</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300134</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568983</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028062</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797248</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756285</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468512</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589168</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143778</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6812,16 +6812,16 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
         <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268402</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.614450297915</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400835</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270566</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038369</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797786</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580272</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832675</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487579</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510521</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854718</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648831</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611871</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703232</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192755</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111751</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075874</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014794</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068033</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694734</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852285</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398624</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749261</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778471</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967201</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354688</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300134</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568983</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028062</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527401</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803961</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516188</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793936</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348546</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7049,16 +7049,16 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
         <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268402</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
         <v>1111.614450297915</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188012</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908943</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908943</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908943</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908943</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057743</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038369</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797786</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580272</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290589</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925711</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.309241249041</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797248</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311175</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075874</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332398</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014794</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068033</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694734</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852285</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398624</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778471</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967201</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354688</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300134</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568983</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028062</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.5840502527401</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803961</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516188</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793936</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348546</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7286,16 +7286,16 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
         <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268402</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.614450297915</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188012</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057743</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797248</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038369</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797786</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580272</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7371,13 +7371,13 @@
         <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290589</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925711</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.309241249041</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638189467</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111423</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075547</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332365</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014761</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355923</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694701</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273944</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803954</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516181</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793935</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
         <v>2244.643795685161</v>
@@ -7535,7 +7535,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.302781469592</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871989</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892885</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041684</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580271</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580271</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580271</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924469</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718582</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638189467</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111423</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075547</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332365</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014761</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355923</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694701</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273944</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803954</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516181</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.48107116738</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793935</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
         <v>2244.643795685161</v>
@@ -7772,7 +7772,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740083</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121762</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121762</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121762</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121762</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270561</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832674</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487579</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.46108051052</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854718</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648831</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.28419561187</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138529</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703228</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878353</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241568</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-3.043167686193586e-11</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.149125404888764e-11</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>111.7546635373314</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>39.57498479398643</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409391881</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>24.63391537252272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856521</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402404956</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>46.4596884482194</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392193054</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392193045</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392193045</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891543</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012119</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392193036</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795507.1502079279</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795507.1502079287</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795507.1502079288</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795507.1502079279</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795507.1502079287</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795507.1502079287</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795507.1502079287</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795507.150207929</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795507.1502079287</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448204</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.726487790760765e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819285</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810793</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356755715</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756595</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356755713</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356755173</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356755184</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675522</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26487,31 +26487,31 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239077</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239077</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239077</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708108.4580630462</v>
+        <v>-708108.4580630468</v>
       </c>
       <c r="C6" t="n">
         <v>406643.3255128728</v>
       </c>
       <c r="D6" t="n">
-        <v>247222.0555149802</v>
+        <v>247222.0555149803</v>
       </c>
       <c r="E6" t="n">
-        <v>189319.0435173792</v>
+        <v>189631.6848463</v>
       </c>
       <c r="F6" t="n">
-        <v>514731.5053247342</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="G6" t="n">
-        <v>514731.5053247341</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="H6" t="n">
-        <v>514731.5053247302</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="I6" t="n">
-        <v>514731.5053247339</v>
+        <v>515044.1466536551</v>
       </c>
       <c r="J6" t="n">
-        <v>347126.3275147515</v>
+        <v>347438.9688436729</v>
       </c>
       <c r="K6" t="n">
-        <v>514731.5053247348</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="L6" t="n">
-        <v>466437.535316542</v>
+        <v>466750.1766454647</v>
       </c>
       <c r="M6" t="n">
-        <v>429676.4773892229</v>
+        <v>429989.1187181436</v>
       </c>
       <c r="N6" t="n">
-        <v>514731.5053247348</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="O6" t="n">
-        <v>514731.5053247341</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="P6" t="n">
-        <v>514731.5053247341</v>
+        <v>515044.1466536553</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175389</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26755,31 +26755,31 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099656</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099656</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099656</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.139089236967266e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.8166233022537</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.8166233022542</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022622</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>269.0101285567921</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>322.5923668017561</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>153.5253779792056</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>49.80376291451441</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>316.0087353531914</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>107.6141933808482</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745048</v>
+        <v>262.5773610745051</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>162.6305450049678</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>46.7664750305963</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.26178070013006</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-4.938527139227503e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.106492840743158e-11</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-3.026912054338027e-11</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31290,37 +31290,37 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31396,7 +31396,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335769</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420767</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32560,31 +32560,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862155</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N21" t="n">
-        <v>601.0567753070345</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437275</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214723</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485307</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418569</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626459749</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043741</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798066916</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798066916</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643557871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>427.1133740445989</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807092</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637947</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676415</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,10 +35111,10 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902105</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.15822477541</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641972</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N21" t="n">
-        <v>469.7150632237012</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.484575999283</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.902171207142</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625092</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789293</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512242881</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902105</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.950659512118</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236285699</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236285699</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113427</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
